--- a/data/trans_bre/P2A_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.33379644199974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.286214545900888</v>
+        <v>8.286214545900899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3411158114966587</v>
@@ -649,7 +649,7 @@
         <v>0.1817160282302059</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1714190382611667</v>
+        <v>0.1714190382611669</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>14.23867932959038</v>
+        <v>14.20884781324071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.78323955983048</v>
+        <v>12.69405961150401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.526973839689767</v>
+        <v>6.088851294283696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.452855291939017</v>
+        <v>2.491618631539379</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2352205515350726</v>
+        <v>0.2382346308785806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2218990257300045</v>
+        <v>0.2209624720164013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1124958239388815</v>
+        <v>0.1042047774002104</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0474179457043115</v>
+        <v>0.04795606013805218</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.964837154332</v>
+        <v>24.09237353812843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.7667168041777</v>
+        <v>20.94498331128378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.48859302642683</v>
+        <v>14.39772935328697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.45159945487657</v>
+        <v>14.3221565411022</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4505387037197107</v>
+        <v>0.4573690684214366</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3955701834029694</v>
+        <v>0.4017831306373053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2653732736364993</v>
+        <v>0.2664346401504335</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3306524258368989</v>
+        <v>0.3306424512437656</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>12.4287138532438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.358410554886998</v>
+        <v>8.358410554886991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2389210729016145</v>
@@ -749,7 +749,7 @@
         <v>0.2416675285068249</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.190477416497815</v>
+        <v>0.1904774164978148</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.061224629654625</v>
+        <v>7.739357747737473</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.898461212045901</v>
+        <v>7.977548413354844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.045138071827198</v>
+        <v>8.042680178260275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.997092655290361</v>
+        <v>4.428866192440876</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1558146842773713</v>
+        <v>0.1469885974006702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1292201705549581</v>
+        <v>0.1335368840599241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.149153463094939</v>
+        <v>0.1467101377223873</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08091170857737096</v>
+        <v>0.09388641812786738</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.14218317434152</v>
+        <v>16.09140399687266</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.48556352390709</v>
+        <v>16.67418315989334</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.99735989210126</v>
+        <v>17.31445060539752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.97103333330573</v>
+        <v>13.26447178421801</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3418384529495056</v>
+        <v>0.3356769323634592</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2949003762162194</v>
+        <v>0.3047452111079765</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3482603541668614</v>
+        <v>0.3554628633446229</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3088297186487378</v>
+        <v>0.3263486221886145</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.96222755540413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.690214732909764</v>
+        <v>4.690214732909776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2514324788489113</v>
@@ -849,7 +849,7 @@
         <v>0.243907382671797</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1217578218596132</v>
+        <v>0.1217578218596135</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.97353852462737</v>
+        <v>7.116446819487863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.518596294914663</v>
+        <v>4.474426518657426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.007531449839033</v>
+        <v>6.822420992942768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4543656368580125</v>
+        <v>0.4694091077718277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1475165192734245</v>
+        <v>0.1503947167386069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0754548515795295</v>
+        <v>0.07297749850787254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1355833646672704</v>
+        <v>0.1345910125668787</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01102326892132599</v>
+        <v>0.01157705902148213</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.66102245783969</v>
+        <v>15.92511133169565</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.67632986774155</v>
+        <v>14.04584149478268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.77035725130755</v>
+        <v>16.63066369124909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.859137499160546</v>
+        <v>8.904725913331736</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3707083373582359</v>
+        <v>0.3739459317672453</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2468552760766815</v>
+        <v>0.2511512702905216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3651250651889462</v>
+        <v>0.3639051997968067</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2391266519965655</v>
+        <v>0.2526954078009064</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.91522504301837</v>
+        <v>12.05385677481057</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.66849765622464</v>
+        <v>9.728398888311698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.716238047840645</v>
+        <v>5.155908096807425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.551163026377809</v>
+        <v>-1.070952097057664</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2616463178907244</v>
+        <v>0.2737557551319089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2023458258255787</v>
+        <v>0.1876267728377732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08985146141053076</v>
+        <v>0.1012388645362326</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04417336380643621</v>
+        <v>-0.03369034393741628</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.80437176481598</v>
+        <v>26.59401904170764</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.64052875634901</v>
+        <v>22.80284329073013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.70830836149366</v>
+        <v>17.79806300245371</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.039191615046588</v>
+        <v>7.584266060605629</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6950916455864444</v>
+        <v>0.7035983404301819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.49490250684339</v>
+        <v>0.5066752865207131</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4082766770368639</v>
+        <v>0.4083874188011467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2380617557006012</v>
+        <v>0.2588961567988505</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.64073794782273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.614440432066732</v>
+        <v>6.614440432066737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3272833340899213</v>
@@ -1049,7 +1049,7 @@
         <v>0.2237495694622473</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1670818380653322</v>
+        <v>0.1670818380653324</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.26039324467035</v>
+        <v>13.11548247257299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.39368845882882</v>
+        <v>11.13769927468041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.32833108283493</v>
+        <v>9.185448239127227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.134084344657468</v>
+        <v>4.351615114908986</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2680829640323615</v>
+        <v>0.2637893499395793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2001963065571759</v>
+        <v>0.197499480764711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1760482475047117</v>
+        <v>0.1691052339116896</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09909651847461086</v>
+        <v>0.1071152286435799</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.1314405384485</v>
+        <v>17.92966986883982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.81916114179276</v>
+        <v>15.97210691336332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.01868667915596</v>
+        <v>13.97706780557208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.073317411359126</v>
+        <v>8.91317843933901</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3893122139285252</v>
+        <v>0.3815382520127534</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2932335595989788</v>
+        <v>0.2951171488515537</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2782924282304002</v>
+        <v>0.2749707991471728</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.237506277437473</v>
+        <v>0.235097258224276</v>
       </c>
     </row>
     <row r="19">
